--- a/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
+++ b/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
@@ -660,11 +660,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FATHER'S DAY</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">

--- a/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
+++ b/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
@@ -660,7 +660,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FATHER'S DAY</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -1758,7 +1762,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1837,7 +1841,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1913,7 +1917,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, MAYVILLE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1992,7 +1996,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
+          <t>1400 HORICON ST</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2068,7 +2072,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1400 HORICON ST</t>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2149,7 +2153,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
+          <t>5:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2204,7 +2208,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>5:30 am meet at Slinger Piggly Wiggly - 1100 E Commerce Blvd</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2283,8 +2287,8 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
+          <t>Meet in Slinger
+Equip</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2339,8 +2343,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2395,8 +2398,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Carlie)</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -3064,7 +3066,7 @@
       <c r="O46" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3104,7 +3106,7 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -4405,7 +4407,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4638,7 +4640,7 @@
       <c r="S80" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>

--- a/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
+++ b/Copy of 06-16-24 to 06-22-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,20 +611,44 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 4, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -602,24 +666,44 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Sante Fe oil change today</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -649,7 +733,11 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Sante Fe oil change today</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -660,68 +748,48 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FATHER'S DAY</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FATHER'S DAY</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -729,7 +797,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -737,7 +805,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -745,7 +813,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -753,7 +821,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -768,7 +836,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -776,7 +844,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -784,7 +852,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -792,7 +860,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -800,7 +868,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>METRO #301 +RX, BROOKFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -815,7 +883,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #037, RACINE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,7 +891,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #538 +RX, BROADWAY</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -831,7 +899,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #525 +RX, PARK RIDGE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -839,7 +907,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>MARIANO'S #542 +RX, BANNOCKBURN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -847,7 +915,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>17630 W BLUEMOUND</t>
+          <t>METRO #301 +RX, BROOKFIELD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -862,7 +930,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5600 SPRING ST</t>
+          <t>PIGGLY WIGGLY #037, RACINE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -870,7 +938,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3030 N BROADWAY #100</t>
+          <t>MARIANO'S #538 +RX, BROADWAY</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -878,7 +946,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1900 S CUMBERLAND DR</t>
+          <t>MARIANO'S #525 +RX, PARK RIDGE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -886,7 +954,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2999 WAUKEGAN RD</t>
+          <t>MARIANO'S #542 +RX, BANNOCKBURN</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -894,7 +962,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Uv69q4HmCNQ2</t>
+          <t>17630 W BLUEMOUND</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -909,7 +977,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vkH7vLz9Zrx</t>
+          <t>5600 SPRING ST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -917,7 +985,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/bMv5fDgQsNT2</t>
+          <t>3030 N BROADWAY #100</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -925,7 +993,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/39qeNV6tuWU2</t>
+          <t>1900 S CUMBERLAND DR</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -933,7 +1001,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iQpQKzHwQVT2</t>
+          <t>2999 WAUKEGAN RD</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -941,7 +1009,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/Uv69q4HmCNQ2</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -954,27 +1022,43 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vkH7vLz9Zrx</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON SECOND FLOOR REG #4</t>
+          <t>https://goo.gl/maps/bMv5fDgQsNT2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/39qeNV6tuWU2</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iQpQKzHwQVT2</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -984,74 +1068,29 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SET UP ON SECOND FLOOR REG #4</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1062,80 +1101,72 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2nd week</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1146,75 +1177,77 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>Driver,
 Red Van</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1228,64 +1261,75 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2nd week</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1299,64 +1343,64 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2nd DC5 Financial</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1370,71 +1414,67 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2nd DC5 Financial</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2nd week</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>2nd week</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1445,80 +1485,71 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd week</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1529,24 +1560,28 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1557,44 +1592,45 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1606,35 +1642,42 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1645,36 +1688,31 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1689,66 +1727,67 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Until 9:00</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1760,21 +1799,17 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1785,28 +1820,29 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1817,17 +1853,17 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Until 9:00</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1841,36 +1877,35 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1881,12 +1916,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1897,15 +1932,19 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1917,35 +1956,36 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1956,12 +1996,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1972,19 +2012,15 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>2nd week</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1996,19 +2032,19 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1400 HORICON ST</t>
+          <t>DHILLON'S BP, MAYVILLE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2019,29 +2055,28 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2052,15 +2087,19 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2072,53 +2111,52 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
+          <t>1400 HORICON ST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>14)</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Michael N</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2129,19 +2167,15 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2153,50 +2187,76 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>Taylor</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2208,29 +2268,49 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5:30 am meet at Slinger Piggly Wiggly - 1100 E Commerce Blvd</t>
+          <t>5:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2241,7 +2321,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5:30 am meet at Slinger Piggly Wiggly - 1100 E Commerce Blvd</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2253,17 +2337,13 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2275,43 +2355,22 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Meet in Slinger
-Equip</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>6:15 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2319,7 +2378,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2333,24 +2392,25 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Meet in Slinger
+Equip</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2358,7 +2418,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2366,7 +2426,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #092, HARTLAND</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2374,7 +2434,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2388,25 +2448,24 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>METRO #892 +RX, MENOMONEE FALLS - 
-COUNTY LINE RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2414,7 +2473,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2422,7 +2481,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>505 SOUTH COTTONWOOD</t>
+          <t>PIGGLY WIGGLY #092, HARTLAND</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2430,7 +2489,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2442,14 +2501,27 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>N95 W18351 COUNTY LINE RD</t>
+          <t>METRO #892 +RX, MENOMONEE FALLS - 
+COUNTY LINE RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2457,7 +2529,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2465,13 +2537,17 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3fKEhu9Q6Q52</t>
+          <t>505 SOUTH COTTONWOOD</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2488,7 +2564,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KutaqrX9XEx</t>
+          <t>N95 W18351 COUNTY LINE RD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2496,7 +2572,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2504,26 +2580,14 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/3fKEhu9Q6Q52</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2533,17 +2597,13 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SET UP LAST REG BY SELF C/O</t>
+          <t>https://goo.gl/maps/KutaqrX9XEx</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2551,29 +2611,32 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2587,7 +2650,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2595,7 +2658,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>SET UP LAST REG BY SELF C/O</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2603,40 +2666,29 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Optima</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2650,47 +2702,51 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2709,43 +2765,31 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HUSTIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>David</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2756,12 +2800,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2780,39 +2824,43 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>326 W JUNEAU ST</t>
+          <t>DHILLON'S STATION HUSTIS</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2823,12 +2871,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2847,43 +2895,39 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+          <t>326 W JUNEAU ST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>(w/ Trevor)</t>
-        </is>
-      </c>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2892,9 +2936,21 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2904,33 +2960,45 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2950,72 +3018,44 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3027,64 +3067,71 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>After Metro</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3095,44 +3142,64 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>After Metro</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3141,18 +3208,31 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3162,11 +3242,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3186,32 +3262,24 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2nd week</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3228,29 +3296,29 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3258,7 +3326,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3277,19 +3345,19 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3297,7 +3365,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3305,7 +3373,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>600 WALNUT RIDGE DR</t>
+          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3324,31 +3392,27 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MARKESAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3356,7 +3420,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
+          <t>600 WALNUT RIDGE DR</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3375,37 +3439,41 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+          <t>DHILLON'S BP, MARKESAN</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3422,50 +3490,38 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2002 W GALENA AVE</t>
+          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3481,19 +3537,19 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+          <t>2002 W GALENA AVE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3505,14 +3561,26 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3528,19 +3596,19 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>WE SET UP IN THE BACKROOM BY END OF FROZEN AISLES</t>
+          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3550,7 +3618,11 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3569,35 +3641,35 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>WE SET UP IN THE BACKROOM BY END OF FROZEN AISLES</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3611,21 +3683,9 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3633,25 +3693,24 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3669,50 +3728,45 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Driver,
-Tan Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>@ Store
-(w/ Carlie)</t>
+(w/ Trevor)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DHILLON'S HARTLAND VILLAGE MART</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3730,32 +3784,50 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Driver,
+Tan Camry</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>301 E CAPITOL DR</t>
+          <t>DHILLON'S HARTLAND VILLAGE MART</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3773,12 +3845,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3786,7 +3858,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3798,7 +3870,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
+          <t>301 E CAPITOL DR</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3816,38 +3888,34 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3863,12 +3931,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3880,7 +3948,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3888,26 +3956,14 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Tan Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3922,12 +3978,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3939,7 +3995,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3947,22 +4003,26 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Tan Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3977,12 +4037,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3994,7 +4054,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4002,27 +4062,22 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, NEOSHO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4037,12 +4092,12 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4054,7 +4109,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4062,14 +4117,27 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>446 S SCHUYER ST</t>
+          <t>DHILLON'S BP, NEOSHO</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4082,14 +4150,26 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4097,7 +4177,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
+          <t>446 S SCHUYER ST</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4124,21 +4204,21 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+          <t>17235 W BLUEMOUND RD</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4159,32 +4239,19 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4207,27 +4274,32 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4250,19 +4322,19 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4270,7 +4342,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4293,19 +4365,27 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4328,7 +4408,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4340,7 +4420,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4361,21 +4441,21 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride - Go straight to the store</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4395,32 +4475,24 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride - Go straight to the store</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4440,39 +4512,31 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4491,12 +4555,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4504,25 +4568,24 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
@@ -4541,29 +4604,42 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -4587,19 +4663,19 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4624,25 +4700,24 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -4663,37 +4738,24 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Driver,
-Tan Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Carlie)</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
@@ -4718,19 +4780,37 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Driver,
+Tan Camry, Equip</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -4753,12 +4833,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -4786,8 +4866,16 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
@@ -4841,11 +4929,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -4874,14 +4958,10 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>After Dhillons</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -4893,6 +4973,41 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>After Dhillons</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
